--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Agrn-Musk.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Agrn-Musk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.4076210329856</v>
+        <v>17.05375133333333</v>
       </c>
       <c r="H2">
-        <v>11.4076210329856</v>
+        <v>51.161254</v>
       </c>
       <c r="I2">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="J2">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.16283790340996</v>
+        <v>0.04524533333333333</v>
       </c>
       <c r="N2">
-        <v>3.16283790340996</v>
+        <v>0.135736</v>
       </c>
       <c r="O2">
-        <v>0.2533619487929375</v>
+        <v>0.002667246060778649</v>
       </c>
       <c r="P2">
-        <v>0.2533619487929375</v>
+        <v>0.002667246060778649</v>
       </c>
       <c r="Q2">
-        <v>36.08045619086354</v>
+        <v>0.7716026636604445</v>
       </c>
       <c r="R2">
-        <v>36.08045619086354</v>
+        <v>6.944423972944</v>
       </c>
       <c r="S2">
-        <v>0.07158048077930436</v>
+        <v>0.0009338791820336072</v>
       </c>
       <c r="T2">
-        <v>0.07158048077930436</v>
+        <v>0.0009338791820336076</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.4076210329856</v>
+        <v>17.05375133333333</v>
       </c>
       <c r="H3">
-        <v>11.4076210329856</v>
+        <v>51.161254</v>
       </c>
       <c r="I3">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="J3">
-        <v>0.2825226168346384</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.32063847683694</v>
+        <v>3.215396333333333</v>
       </c>
       <c r="N3">
-        <v>9.32063847683694</v>
+        <v>9.646189</v>
       </c>
       <c r="O3">
-        <v>0.7466380512070625</v>
+        <v>0.1895500059805529</v>
       </c>
       <c r="P3">
-        <v>0.7466380512070625</v>
+        <v>0.189550005980553</v>
       </c>
       <c r="Q3">
-        <v>106.32631152922</v>
+        <v>54.83456950677844</v>
       </c>
       <c r="R3">
-        <v>106.32631152922</v>
+        <v>493.511125561006</v>
       </c>
       <c r="S3">
-        <v>0.210942136055334</v>
+        <v>0.06636688198459936</v>
       </c>
       <c r="T3">
-        <v>0.210942136055334</v>
+        <v>0.06636688198459939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.96738362552852</v>
+        <v>17.05375133333333</v>
       </c>
       <c r="H4">
-        <v>2.96738362552852</v>
+        <v>51.161254</v>
       </c>
       <c r="I4">
-        <v>0.07349060637730184</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="J4">
-        <v>0.07349060637730184</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.16283790340996</v>
+        <v>0.1960953333333333</v>
       </c>
       <c r="N4">
-        <v>3.16283790340996</v>
+        <v>0.588286</v>
       </c>
       <c r="O4">
-        <v>0.2533619487929375</v>
+        <v>0.01155996578734623</v>
       </c>
       <c r="P4">
-        <v>0.2533619487929375</v>
+        <v>0.01155996578734623</v>
       </c>
       <c r="Q4">
-        <v>9.38535340477967</v>
+        <v>3.344161052293777</v>
       </c>
       <c r="R4">
-        <v>9.38535340477967</v>
+        <v>30.097449470644</v>
       </c>
       <c r="S4">
-        <v>0.01861972324972788</v>
+        <v>0.004047474866518998</v>
       </c>
       <c r="T4">
-        <v>0.01861972324972788</v>
+        <v>0.004047474866518999</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.96738362552852</v>
+        <v>17.05375133333333</v>
       </c>
       <c r="H5">
-        <v>2.96738362552852</v>
+        <v>51.161254</v>
       </c>
       <c r="I5">
-        <v>0.07349060637730184</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="J5">
-        <v>0.07349060637730184</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>9.32063847683694</v>
+        <v>0.032567</v>
       </c>
       <c r="N5">
-        <v>9.32063847683694</v>
+        <v>0.097701</v>
       </c>
       <c r="O5">
-        <v>0.7466380512070625</v>
+        <v>0.00191984887858884</v>
       </c>
       <c r="P5">
-        <v>0.7466380512070625</v>
+        <v>0.00191984887858884</v>
       </c>
       <c r="Q5">
-        <v>27.65790999563702</v>
+        <v>0.5553895196726667</v>
       </c>
       <c r="R5">
-        <v>27.65790999563702</v>
+        <v>4.998505677054</v>
       </c>
       <c r="S5">
-        <v>0.05487088312757397</v>
+        <v>0.0006721940381613239</v>
       </c>
       <c r="T5">
-        <v>0.05487088312757397</v>
+        <v>0.0006721940381613241</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.65010348268525</v>
+        <v>17.05375133333333</v>
       </c>
       <c r="H6">
-        <v>4.65010348268525</v>
+        <v>51.161254</v>
       </c>
       <c r="I6">
-        <v>0.1151650638359491</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="J6">
-        <v>0.1151650638359491</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.16283790340996</v>
+        <v>0.8318833333333333</v>
       </c>
       <c r="N6">
-        <v>3.16283790340996</v>
+        <v>2.49565</v>
       </c>
       <c r="O6">
-        <v>0.2533619487929375</v>
+        <v>0.04904014138903633</v>
       </c>
       <c r="P6">
-        <v>0.2533619487929375</v>
+        <v>0.04904014138903633</v>
       </c>
       <c r="Q6">
-        <v>14.70752354981557</v>
+        <v>14.18673150501111</v>
       </c>
       <c r="R6">
-        <v>14.70752354981557</v>
+        <v>127.6805835451</v>
       </c>
       <c r="S6">
-        <v>0.02917844500633911</v>
+        <v>0.0171703570212926</v>
       </c>
       <c r="T6">
-        <v>0.02917844500633911</v>
+        <v>0.0171703570212926</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.65010348268525</v>
+        <v>17.05375133333333</v>
       </c>
       <c r="H7">
-        <v>4.65010348268525</v>
+        <v>51.161254</v>
       </c>
       <c r="I7">
-        <v>0.1151650638359491</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="J7">
-        <v>0.1151650638359491</v>
+        <v>0.3501286198398134</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.32063847683694</v>
+        <v>12.642127</v>
       </c>
       <c r="N7">
-        <v>9.32063847683694</v>
+        <v>37.92638100000001</v>
       </c>
       <c r="O7">
-        <v>0.7466380512070625</v>
+        <v>0.7452627919036969</v>
       </c>
       <c r="P7">
-        <v>0.7466380512070625</v>
+        <v>0.745262791903697</v>
       </c>
       <c r="Q7">
-        <v>43.3419334419896</v>
+        <v>215.5956901824194</v>
       </c>
       <c r="R7">
-        <v>43.3419334419896</v>
+        <v>1940.361211641774</v>
       </c>
       <c r="S7">
-        <v>0.08598661882960999</v>
+        <v>0.2609378327472074</v>
       </c>
       <c r="T7">
-        <v>0.08598661882960999</v>
+        <v>0.2609378327472075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.39179948365893</v>
+        <v>3.037017666666667</v>
       </c>
       <c r="H8">
-        <v>5.39179948365893</v>
+        <v>9.111053</v>
       </c>
       <c r="I8">
-        <v>0.133534002853555</v>
+        <v>0.06235266266494154</v>
       </c>
       <c r="J8">
-        <v>0.133534002853555</v>
+        <v>0.06235266266494155</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.16283790340996</v>
+        <v>0.04524533333333333</v>
       </c>
       <c r="N8">
-        <v>3.16283790340996</v>
+        <v>0.135736</v>
       </c>
       <c r="O8">
-        <v>0.2533619487929375</v>
+        <v>0.002667246060778649</v>
       </c>
       <c r="P8">
-        <v>0.2533619487929375</v>
+        <v>0.002667246060778649</v>
       </c>
       <c r="Q8">
-        <v>17.05338777450271</v>
+        <v>0.1374108766675556</v>
       </c>
       <c r="R8">
-        <v>17.05338777450271</v>
+        <v>1.236697890008</v>
       </c>
       <c r="S8">
-        <v>0.03383243519309836</v>
+        <v>0.0001663098938721253</v>
       </c>
       <c r="T8">
-        <v>0.03383243519309836</v>
+        <v>0.0001663098938721253</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.39179948365893</v>
+        <v>3.037017666666667</v>
       </c>
       <c r="H9">
-        <v>5.39179948365893</v>
+        <v>9.111053</v>
       </c>
       <c r="I9">
-        <v>0.133534002853555</v>
+        <v>0.06235266266494154</v>
       </c>
       <c r="J9">
-        <v>0.133534002853555</v>
+        <v>0.06235266266494155</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.32063847683694</v>
+        <v>3.215396333333333</v>
       </c>
       <c r="N9">
-        <v>9.32063847683694</v>
+        <v>9.646189</v>
       </c>
       <c r="O9">
-        <v>0.7466380512070625</v>
+        <v>0.1895500059805529</v>
       </c>
       <c r="P9">
-        <v>0.7466380512070625</v>
+        <v>0.189550005980553</v>
       </c>
       <c r="Q9">
-        <v>50.25501372678097</v>
+        <v>9.765215469668556</v>
       </c>
       <c r="R9">
-        <v>50.25501372678097</v>
+        <v>87.886939227017</v>
       </c>
       <c r="S9">
-        <v>0.0997015676604566</v>
+        <v>0.01181894758104307</v>
       </c>
       <c r="T9">
-        <v>0.0997015676604566</v>
+        <v>0.01181894758104307</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.12159796544446</v>
+        <v>3.037017666666667</v>
       </c>
       <c r="H10">
-        <v>5.12159796544446</v>
+        <v>9.111053</v>
       </c>
       <c r="I10">
-        <v>0.126842157132356</v>
+        <v>0.06235266266494154</v>
       </c>
       <c r="J10">
-        <v>0.126842157132356</v>
+        <v>0.06235266266494155</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.16283790340996</v>
+        <v>0.1960953333333333</v>
       </c>
       <c r="N10">
-        <v>3.16283790340996</v>
+        <v>0.588286</v>
       </c>
       <c r="O10">
-        <v>0.2533619487929375</v>
+        <v>0.01155996578734623</v>
       </c>
       <c r="P10">
-        <v>0.2533619487929375</v>
+        <v>0.01155996578734623</v>
       </c>
       <c r="Q10">
-        <v>16.19878417113507</v>
+        <v>0.5955449916842223</v>
       </c>
       <c r="R10">
-        <v>16.19878417113507</v>
+        <v>5.359904925158</v>
       </c>
       <c r="S10">
-        <v>0.03213697612015371</v>
+        <v>0.0007207946471566648</v>
       </c>
       <c r="T10">
-        <v>0.03213697612015371</v>
+        <v>0.0007207946471566651</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.12159796544446</v>
+        <v>3.037017666666667</v>
       </c>
       <c r="H11">
-        <v>5.12159796544446</v>
+        <v>9.111053</v>
       </c>
       <c r="I11">
-        <v>0.126842157132356</v>
+        <v>0.06235266266494154</v>
       </c>
       <c r="J11">
-        <v>0.126842157132356</v>
+        <v>0.06235266266494155</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>9.32063847683694</v>
+        <v>0.032567</v>
       </c>
       <c r="N11">
-        <v>9.32063847683694</v>
+        <v>0.097701</v>
       </c>
       <c r="O11">
-        <v>0.7466380512070625</v>
+        <v>0.00191984887858884</v>
       </c>
       <c r="P11">
-        <v>0.7466380512070625</v>
+        <v>0.00191984887858884</v>
       </c>
       <c r="Q11">
-        <v>47.73656305961142</v>
+        <v>0.09890655435033334</v>
       </c>
       <c r="R11">
-        <v>47.73656305961142</v>
+        <v>0.890158989153</v>
       </c>
       <c r="S11">
-        <v>0.09470518101220228</v>
+        <v>0.0001197076894943162</v>
       </c>
       <c r="T11">
-        <v>0.09470518101220228</v>
+        <v>0.0001197076894943163</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.8392211941781</v>
+        <v>3.037017666666667</v>
       </c>
       <c r="H12">
-        <v>10.8392211941781</v>
+        <v>9.111053</v>
       </c>
       <c r="I12">
-        <v>0.2684455529661998</v>
+        <v>0.06235266266494154</v>
       </c>
       <c r="J12">
-        <v>0.2684455529661998</v>
+        <v>0.06235266266494155</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>3.16283790340996</v>
+        <v>0.8318833333333333</v>
       </c>
       <c r="N12">
-        <v>3.16283790340996</v>
+        <v>2.49565</v>
       </c>
       <c r="O12">
-        <v>0.2533619487929375</v>
+        <v>0.04904014138903633</v>
       </c>
       <c r="P12">
-        <v>0.2533619487929375</v>
+        <v>0.04904014138903633</v>
       </c>
       <c r="Q12">
-        <v>34.28269963639107</v>
+        <v>2.526444379938889</v>
       </c>
       <c r="R12">
-        <v>34.28269963639107</v>
+        <v>22.73799941945</v>
       </c>
       <c r="S12">
-        <v>0.06801388844431409</v>
+        <v>0.00305778339307162</v>
       </c>
       <c r="T12">
-        <v>0.06801388844431409</v>
+        <v>0.003057783393071621</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,1540 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.8392211941781</v>
+        <v>3.037017666666667</v>
       </c>
       <c r="H13">
-        <v>10.8392211941781</v>
+        <v>9.111053</v>
       </c>
       <c r="I13">
-        <v>0.2684455529661998</v>
+        <v>0.06235266266494154</v>
       </c>
       <c r="J13">
-        <v>0.2684455529661998</v>
+        <v>0.06235266266494155</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.32063847683694</v>
+        <v>12.642127</v>
       </c>
       <c r="N13">
-        <v>9.32063847683694</v>
+        <v>37.92638100000001</v>
       </c>
       <c r="O13">
-        <v>0.7466380512070625</v>
+        <v>0.7452627919036969</v>
       </c>
       <c r="P13">
-        <v>0.7466380512070625</v>
+        <v>0.745262791903697</v>
       </c>
       <c r="Q13">
-        <v>101.0284621214028</v>
+        <v>38.39436304324367</v>
       </c>
       <c r="R13">
-        <v>101.0284621214028</v>
+        <v>345.5492673891931</v>
       </c>
       <c r="S13">
-        <v>0.2004316645218857</v>
+        <v>0.04646911946030374</v>
       </c>
       <c r="T13">
-        <v>0.2004316645218857</v>
+        <v>0.04646911946030376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.955296333333334</v>
+      </c>
+      <c r="H14">
+        <v>14.865889</v>
+      </c>
+      <c r="I14">
+        <v>0.101736622762645</v>
+      </c>
+      <c r="J14">
+        <v>0.101736622762645</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.04524533333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.135736</v>
+      </c>
+      <c r="O14">
+        <v>0.002667246060778649</v>
+      </c>
+      <c r="P14">
+        <v>0.002667246060778649</v>
+      </c>
+      <c r="Q14">
+        <v>0.2242040343671111</v>
+      </c>
+      <c r="R14">
+        <v>2.017836309304</v>
+      </c>
+      <c r="S14">
+        <v>0.0002713566063005883</v>
+      </c>
+      <c r="T14">
+        <v>0.0002713566063005884</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.955296333333334</v>
+      </c>
+      <c r="H15">
+        <v>14.865889</v>
+      </c>
+      <c r="I15">
+        <v>0.101736622762645</v>
+      </c>
+      <c r="J15">
+        <v>0.101736622762645</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.215396333333333</v>
+      </c>
+      <c r="N15">
+        <v>9.646189</v>
+      </c>
+      <c r="O15">
+        <v>0.1895500059805529</v>
+      </c>
+      <c r="P15">
+        <v>0.189550005980553</v>
+      </c>
+      <c r="Q15">
+        <v>15.93324166078011</v>
+      </c>
+      <c r="R15">
+        <v>143.399174947021</v>
+      </c>
+      <c r="S15">
+        <v>0.01928417745310062</v>
+      </c>
+      <c r="T15">
+        <v>0.01928417745310063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.955296333333334</v>
+      </c>
+      <c r="H16">
+        <v>14.865889</v>
+      </c>
+      <c r="I16">
+        <v>0.101736622762645</v>
+      </c>
+      <c r="J16">
+        <v>0.101736622762645</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1960953333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.588286</v>
+      </c>
+      <c r="O16">
+        <v>0.01155996578734623</v>
+      </c>
+      <c r="P16">
+        <v>0.01155996578734623</v>
+      </c>
+      <c r="Q16">
+        <v>0.9717104862504445</v>
+      </c>
+      <c r="R16">
+        <v>8.745394376254</v>
+      </c>
+      <c r="S16">
+        <v>0.001176071878456326</v>
+      </c>
+      <c r="T16">
+        <v>0.001176071878456327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.955296333333334</v>
+      </c>
+      <c r="H17">
+        <v>14.865889</v>
+      </c>
+      <c r="I17">
+        <v>0.101736622762645</v>
+      </c>
+      <c r="J17">
+        <v>0.101736622762645</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.032567</v>
+      </c>
+      <c r="N17">
+        <v>0.097701</v>
+      </c>
+      <c r="O17">
+        <v>0.00191984887858884</v>
+      </c>
+      <c r="P17">
+        <v>0.00191984887858884</v>
+      </c>
+      <c r="Q17">
+        <v>0.1613791356876667</v>
+      </c>
+      <c r="R17">
+        <v>1.452412221189</v>
+      </c>
+      <c r="S17">
+        <v>0.0001953189411222799</v>
+      </c>
+      <c r="T17">
+        <v>0.0001953189411222799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.955296333333334</v>
+      </c>
+      <c r="H18">
+        <v>14.865889</v>
+      </c>
+      <c r="I18">
+        <v>0.101736622762645</v>
+      </c>
+      <c r="J18">
+        <v>0.101736622762645</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.8318833333333333</v>
+      </c>
+      <c r="N18">
+        <v>2.49565</v>
+      </c>
+      <c r="O18">
+        <v>0.04904014138903633</v>
+      </c>
+      <c r="P18">
+        <v>0.04904014138903633</v>
+      </c>
+      <c r="Q18">
+        <v>4.122228431427779</v>
+      </c>
+      <c r="R18">
+        <v>37.10005588285</v>
+      </c>
+      <c r="S18">
+        <v>0.004989178364723163</v>
+      </c>
+      <c r="T18">
+        <v>0.004989178364723164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.955296333333334</v>
+      </c>
+      <c r="H19">
+        <v>14.865889</v>
+      </c>
+      <c r="I19">
+        <v>0.101736622762645</v>
+      </c>
+      <c r="J19">
+        <v>0.101736622762645</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>12.642127</v>
+      </c>
+      <c r="N19">
+        <v>37.92638100000001</v>
+      </c>
+      <c r="O19">
+        <v>0.7452627919036969</v>
+      </c>
+      <c r="P19">
+        <v>0.745262791903697</v>
+      </c>
+      <c r="Q19">
+        <v>62.64548556863435</v>
+      </c>
+      <c r="R19">
+        <v>563.8093701177091</v>
+      </c>
+      <c r="S19">
+        <v>0.07582051951894203</v>
+      </c>
+      <c r="T19">
+        <v>0.07582051951894205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5.897008666666667</v>
+      </c>
+      <c r="H20">
+        <v>17.691026</v>
+      </c>
+      <c r="I20">
+        <v>0.1210708110659339</v>
+      </c>
+      <c r="J20">
+        <v>0.1210708110659339</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.04524533333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.135736</v>
+      </c>
+      <c r="O20">
+        <v>0.002667246060778649</v>
+      </c>
+      <c r="P20">
+        <v>0.002667246060778649</v>
+      </c>
+      <c r="Q20">
+        <v>0.2668121227928889</v>
+      </c>
+      <c r="R20">
+        <v>2.401309105136</v>
+      </c>
+      <c r="S20">
+        <v>0.0003229256438908882</v>
+      </c>
+      <c r="T20">
+        <v>0.0003229256438908883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.897008666666667</v>
+      </c>
+      <c r="H21">
+        <v>17.691026</v>
+      </c>
+      <c r="I21">
+        <v>0.1210708110659339</v>
+      </c>
+      <c r="J21">
+        <v>0.1210708110659339</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.215396333333333</v>
+      </c>
+      <c r="N21">
+        <v>9.646189</v>
+      </c>
+      <c r="O21">
+        <v>0.1895500059805529</v>
+      </c>
+      <c r="P21">
+        <v>0.189550005980553</v>
+      </c>
+      <c r="Q21">
+        <v>18.96122004443489</v>
+      </c>
+      <c r="R21">
+        <v>170.650980399914</v>
+      </c>
+      <c r="S21">
+        <v>0.02294897296161816</v>
+      </c>
+      <c r="T21">
+        <v>0.02294897296161817</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.897008666666667</v>
+      </c>
+      <c r="H22">
+        <v>17.691026</v>
+      </c>
+      <c r="I22">
+        <v>0.1210708110659339</v>
+      </c>
+      <c r="J22">
+        <v>0.1210708110659339</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1960953333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.588286</v>
+      </c>
+      <c r="O22">
+        <v>0.01155996578734623</v>
+      </c>
+      <c r="P22">
+        <v>0.01155996578734623</v>
+      </c>
+      <c r="Q22">
+        <v>1.156375880159556</v>
+      </c>
+      <c r="R22">
+        <v>10.407382921436</v>
+      </c>
+      <c r="S22">
+        <v>0.001399574433768455</v>
+      </c>
+      <c r="T22">
+        <v>0.001399574433768456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.897008666666667</v>
+      </c>
+      <c r="H23">
+        <v>17.691026</v>
+      </c>
+      <c r="I23">
+        <v>0.1210708110659339</v>
+      </c>
+      <c r="J23">
+        <v>0.1210708110659339</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.032567</v>
+      </c>
+      <c r="N23">
+        <v>0.097701</v>
+      </c>
+      <c r="O23">
+        <v>0.00191984887858884</v>
+      </c>
+      <c r="P23">
+        <v>0.00191984887858884</v>
+      </c>
+      <c r="Q23">
+        <v>0.1920478812473334</v>
+      </c>
+      <c r="R23">
+        <v>1.728430931226</v>
+      </c>
+      <c r="S23">
+        <v>0.0002324376608547745</v>
+      </c>
+      <c r="T23">
+        <v>0.0002324376608547745</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.897008666666667</v>
+      </c>
+      <c r="H24">
+        <v>17.691026</v>
+      </c>
+      <c r="I24">
+        <v>0.1210708110659339</v>
+      </c>
+      <c r="J24">
+        <v>0.1210708110659339</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.8318833333333333</v>
+      </c>
+      <c r="N24">
+        <v>2.49565</v>
+      </c>
+      <c r="O24">
+        <v>0.04904014138903633</v>
+      </c>
+      <c r="P24">
+        <v>0.04904014138903633</v>
+      </c>
+      <c r="Q24">
+        <v>4.905623226322223</v>
+      </c>
+      <c r="R24">
+        <v>44.1506090369</v>
+      </c>
+      <c r="S24">
+        <v>0.005937329692758702</v>
+      </c>
+      <c r="T24">
+        <v>0.005937329692758703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.897008666666667</v>
+      </c>
+      <c r="H25">
+        <v>17.691026</v>
+      </c>
+      <c r="I25">
+        <v>0.1210708110659339</v>
+      </c>
+      <c r="J25">
+        <v>0.1210708110659339</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.642127</v>
+      </c>
+      <c r="N25">
+        <v>37.92638100000001</v>
+      </c>
+      <c r="O25">
+        <v>0.7452627919036969</v>
+      </c>
+      <c r="P25">
+        <v>0.745262791903697</v>
+      </c>
+      <c r="Q25">
+        <v>74.55073248410069</v>
+      </c>
+      <c r="R25">
+        <v>670.9565923569062</v>
+      </c>
+      <c r="S25">
+        <v>0.09022957067304289</v>
+      </c>
+      <c r="T25">
+        <v>0.09022957067304292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.159083666666667</v>
+      </c>
+      <c r="H26">
+        <v>15.477251</v>
+      </c>
+      <c r="I26">
+        <v>0.1059205572159035</v>
+      </c>
+      <c r="J26">
+        <v>0.1059205572159035</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.04524533333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.135736</v>
+      </c>
+      <c r="O26">
+        <v>0.002667246060778649</v>
+      </c>
+      <c r="P26">
+        <v>0.002667246060778649</v>
+      </c>
+      <c r="Q26">
+        <v>0.2334244601928889</v>
+      </c>
+      <c r="R26">
+        <v>2.100820141736</v>
+      </c>
+      <c r="S26">
+        <v>0.000282516188989598</v>
+      </c>
+      <c r="T26">
+        <v>0.0002825161889895981</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5.159083666666667</v>
+      </c>
+      <c r="H27">
+        <v>15.477251</v>
+      </c>
+      <c r="I27">
+        <v>0.1059205572159035</v>
+      </c>
+      <c r="J27">
+        <v>0.1059205572159035</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3.215396333333333</v>
+      </c>
+      <c r="N27">
+        <v>9.646189</v>
+      </c>
+      <c r="O27">
+        <v>0.1895500059805529</v>
+      </c>
+      <c r="P27">
+        <v>0.189550005980553</v>
+      </c>
+      <c r="Q27">
+        <v>16.58849870515989</v>
+      </c>
+      <c r="R27">
+        <v>149.296488346439</v>
+      </c>
+      <c r="S27">
+        <v>0.020077242253738</v>
+      </c>
+      <c r="T27">
+        <v>0.02007724225373801</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5.159083666666667</v>
+      </c>
+      <c r="H28">
+        <v>15.477251</v>
+      </c>
+      <c r="I28">
+        <v>0.1059205572159035</v>
+      </c>
+      <c r="J28">
+        <v>0.1059205572159035</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1960953333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.588286</v>
+      </c>
+      <c r="O28">
+        <v>0.01155996578734623</v>
+      </c>
+      <c r="P28">
+        <v>0.01155996578734623</v>
+      </c>
+      <c r="Q28">
+        <v>1.011672231309555</v>
+      </c>
+      <c r="R28">
+        <v>9.105050081785999</v>
+      </c>
+      <c r="S28">
+        <v>0.001224438017592493</v>
+      </c>
+      <c r="T28">
+        <v>0.001224438017592494</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5.159083666666667</v>
+      </c>
+      <c r="H29">
+        <v>15.477251</v>
+      </c>
+      <c r="I29">
+        <v>0.1059205572159035</v>
+      </c>
+      <c r="J29">
+        <v>0.1059205572159035</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.032567</v>
+      </c>
+      <c r="N29">
+        <v>0.097701</v>
+      </c>
+      <c r="O29">
+        <v>0.00191984887858884</v>
+      </c>
+      <c r="P29">
+        <v>0.00191984887858884</v>
+      </c>
+      <c r="Q29">
+        <v>0.1680158777723333</v>
+      </c>
+      <c r="R29">
+        <v>1.512142899951</v>
+      </c>
+      <c r="S29">
+        <v>0.0002033514629904573</v>
+      </c>
+      <c r="T29">
+        <v>0.0002033514629904574</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5.159083666666667</v>
+      </c>
+      <c r="H30">
+        <v>15.477251</v>
+      </c>
+      <c r="I30">
+        <v>0.1059205572159035</v>
+      </c>
+      <c r="J30">
+        <v>0.1059205572159035</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.8318833333333333</v>
+      </c>
+      <c r="N30">
+        <v>2.49565</v>
+      </c>
+      <c r="O30">
+        <v>0.04904014138903633</v>
+      </c>
+      <c r="P30">
+        <v>0.04904014138903633</v>
+      </c>
+      <c r="Q30">
+        <v>4.291755717572222</v>
+      </c>
+      <c r="R30">
+        <v>38.62580145814999</v>
+      </c>
+      <c r="S30">
+        <v>0.005194359101873419</v>
+      </c>
+      <c r="T30">
+        <v>0.00519435910187342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5.159083666666667</v>
+      </c>
+      <c r="H31">
+        <v>15.477251</v>
+      </c>
+      <c r="I31">
+        <v>0.1059205572159035</v>
+      </c>
+      <c r="J31">
+        <v>0.1059205572159035</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>12.642127</v>
+      </c>
+      <c r="N31">
+        <v>37.92638100000001</v>
+      </c>
+      <c r="O31">
+        <v>0.7452627919036969</v>
+      </c>
+      <c r="P31">
+        <v>0.745262791903697</v>
+      </c>
+      <c r="Q31">
+        <v>65.22179091762568</v>
+      </c>
+      <c r="R31">
+        <v>586.9961182586311</v>
+      </c>
+      <c r="S31">
+        <v>0.07893865019071949</v>
+      </c>
+      <c r="T31">
+        <v>0.07893865019071952</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>12.604947</v>
+      </c>
+      <c r="H32">
+        <v>37.814841</v>
+      </c>
+      <c r="I32">
+        <v>0.2587907264507627</v>
+      </c>
+      <c r="J32">
+        <v>0.2587907264507627</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M32">
+        <v>0.04524533333333333</v>
+      </c>
+      <c r="N32">
+        <v>0.135736</v>
+      </c>
+      <c r="O32">
+        <v>0.002667246060778649</v>
+      </c>
+      <c r="P32">
+        <v>0.002667246060778649</v>
+      </c>
+      <c r="Q32">
+        <v>0.5703150286640001</v>
+      </c>
+      <c r="R32">
+        <v>5.132835257976</v>
+      </c>
+      <c r="S32">
+        <v>0.0006902585456918417</v>
+      </c>
+      <c r="T32">
+        <v>0.0006902585456918419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>12.604947</v>
+      </c>
+      <c r="H33">
+        <v>37.814841</v>
+      </c>
+      <c r="I33">
+        <v>0.2587907264507627</v>
+      </c>
+      <c r="J33">
+        <v>0.2587907264507627</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3.215396333333333</v>
+      </c>
+      <c r="N33">
+        <v>9.646189</v>
+      </c>
+      <c r="O33">
+        <v>0.1895500059805529</v>
+      </c>
+      <c r="P33">
+        <v>0.189550005980553</v>
+      </c>
+      <c r="Q33">
+        <v>40.529900365661</v>
+      </c>
+      <c r="R33">
+        <v>364.769103290949</v>
+      </c>
+      <c r="S33">
+        <v>0.04905378374645371</v>
+      </c>
+      <c r="T33">
+        <v>0.04905378374645372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>12.604947</v>
+      </c>
+      <c r="H34">
+        <v>37.814841</v>
+      </c>
+      <c r="I34">
+        <v>0.2587907264507627</v>
+      </c>
+      <c r="J34">
+        <v>0.2587907264507627</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.1960953333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.588286</v>
+      </c>
+      <c r="O34">
+        <v>0.01155996578734623</v>
+      </c>
+      <c r="P34">
+        <v>0.01155996578734623</v>
+      </c>
+      <c r="Q34">
+        <v>2.471771283614</v>
+      </c>
+      <c r="R34">
+        <v>22.245941552526</v>
+      </c>
+      <c r="S34">
+        <v>0.002991611943853294</v>
+      </c>
+      <c r="T34">
+        <v>0.002991611943853295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>12.604947</v>
+      </c>
+      <c r="H35">
+        <v>37.814841</v>
+      </c>
+      <c r="I35">
+        <v>0.2587907264507627</v>
+      </c>
+      <c r="J35">
+        <v>0.2587907264507627</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.032567</v>
+      </c>
+      <c r="N35">
+        <v>0.097701</v>
+      </c>
+      <c r="O35">
+        <v>0.00191984887858884</v>
+      </c>
+      <c r="P35">
+        <v>0.00191984887858884</v>
+      </c>
+      <c r="Q35">
+        <v>0.410505308949</v>
+      </c>
+      <c r="R35">
+        <v>3.694547780541</v>
+      </c>
+      <c r="S35">
+        <v>0.0004968390859656879</v>
+      </c>
+      <c r="T35">
+        <v>0.0004968390859656881</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>12.604947</v>
+      </c>
+      <c r="H36">
+        <v>37.814841</v>
+      </c>
+      <c r="I36">
+        <v>0.2587907264507627</v>
+      </c>
+      <c r="J36">
+        <v>0.2587907264507627</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.8318833333333333</v>
+      </c>
+      <c r="N36">
+        <v>2.49565</v>
+      </c>
+      <c r="O36">
+        <v>0.04904014138903633</v>
+      </c>
+      <c r="P36">
+        <v>0.04904014138903633</v>
+      </c>
+      <c r="Q36">
+        <v>10.48584532685</v>
+      </c>
+      <c r="R36">
+        <v>94.37260794165</v>
+      </c>
+      <c r="S36">
+        <v>0.01269113381531682</v>
+      </c>
+      <c r="T36">
+        <v>0.01269113381531683</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>12.604947</v>
+      </c>
+      <c r="H37">
+        <v>37.814841</v>
+      </c>
+      <c r="I37">
+        <v>0.2587907264507627</v>
+      </c>
+      <c r="J37">
+        <v>0.2587907264507627</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>12.642127</v>
+      </c>
+      <c r="N37">
+        <v>37.92638100000001</v>
+      </c>
+      <c r="O37">
+        <v>0.7452627919036969</v>
+      </c>
+      <c r="P37">
+        <v>0.745262791903697</v>
+      </c>
+      <c r="Q37">
+        <v>159.353340802269</v>
+      </c>
+      <c r="R37">
+        <v>1434.180067220421</v>
+      </c>
+      <c r="S37">
+        <v>0.1928670993134813</v>
+      </c>
+      <c r="T37">
+        <v>0.1928670993134814</v>
       </c>
     </row>
   </sheetData>
